--- a/VS_nais_einheiten_unique_mf.xlsx
+++ b/VS_nais_einheiten_unique_mf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FA4750-2BA4-414A-B21F-075B1275D884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D29B8EF-F388-40B2-96F5-FE142EF5C02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42690" yWindow="405" windowWidth="33570" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1920,8 +1920,8 @@
   <dimension ref="A1:J2519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2346" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A1770" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2521" sqref="I2521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47843,7 +47843,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="1770" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1770" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1770" s="1">
         <v>20297</v>
       </c>
@@ -47872,7 +47872,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="1771" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1771" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1771" s="1">
         <v>20645</v>
       </c>
@@ -47898,7 +47898,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="1772" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1772" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1772" s="1">
         <v>20646</v>
       </c>
@@ -47924,7 +47924,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="1773" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1773" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1773" s="1">
         <v>122</v>
       </c>
@@ -47950,7 +47950,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="1774" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1774" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1774" s="1">
         <v>20490</v>
       </c>
@@ -47976,7 +47976,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="1775" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1775" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1775" s="1">
         <v>24352</v>
       </c>
@@ -48002,7 +48002,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="1776" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1776" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1776" s="1">
         <v>20287</v>
       </c>
@@ -48028,7 +48028,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="1777" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1777" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1777" s="1">
         <v>20578</v>
       </c>
@@ -48057,7 +48057,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="1778" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1778" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1778" s="1">
         <v>20493</v>
       </c>
@@ -48083,7 +48083,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="1779" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1779" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1779" s="1">
         <v>20492</v>
       </c>
@@ -48109,7 +48109,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="1780" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1780" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1780" s="1">
         <v>20491</v>
       </c>
@@ -48135,7 +48135,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="1781" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1781" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1781" s="1">
         <v>134</v>
       </c>
@@ -62678,7 +62678,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2346" s="1">
         <v>17233</v>
       </c>
@@ -66976,9 +66976,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J2519" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
+    <filterColumn colId="6">
       <filters>
-        <filter val="93G"/>
+        <filter val="58Ta"/>
       </filters>
     </filterColumn>
   </autoFilter>
